--- a/Задания по Экселю/Диаграммы/Задание_1.xlsx
+++ b/Задания по Экселю/Диаграммы/Задание_1.xlsx
@@ -4,19 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="17670" windowHeight="11070" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="17670" windowHeight="11070"/>
   </bookViews>
   <sheets>
-    <sheet name="Функция y" sheetId="1" r:id="rId1"/>
-    <sheet name="Функция g" sheetId="2" r:id="rId2"/>
-    <sheet name="Функция z" sheetId="3" r:id="rId3"/>
+    <sheet name="Вар. 5" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>x</t>
   </si>
@@ -25,6 +23,15 @@
   </si>
   <si>
     <t>g</t>
+  </si>
+  <si>
+    <t>Функция y</t>
+  </si>
+  <si>
+    <t>Функция z</t>
+  </si>
+  <si>
+    <t>Функция g</t>
   </si>
 </sst>
 </file>
@@ -83,10 +90,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -388,191 +398,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>-3</v>
       </c>
-      <c r="B2" s="1">
-        <f>SQRT(1 + EXP(3 * A2))</f>
-        <v>1.0000617029984133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="B4" s="1">
+        <f>(1 + EXP(3 * A4))^(1/4)</f>
+        <v>1.0000308510233138</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-3</v>
+      </c>
+      <c r="E4" s="1">
+        <f>IF(D4&lt;=0, (3+SIN(D4))/(1+(D4^2)), 2*(D4^2)*COS(D4)^2)</f>
+        <v>0.28588799919401325</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-3</v>
+      </c>
+      <c r="H4" s="1">
+        <f>IF(  G4&lt;0,    (ABS(G4))^1/3,    IF(G4&gt;=1,   (ABS(3-G4))/(1+G4),    -2*G4+(G4)/(1+G4))     )</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>-2</v>
       </c>
-      <c r="B3" s="1">
-        <f>SQRT(1 + EXP(3 * A3))</f>
-        <v>1.0012386090121905</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="B5" s="1">
+        <f>(1 + EXP(3 * A5))^(1/4)</f>
+        <v>1.0006191128557311</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ref="E5:E10" si="0">IF(D5&lt;=0, (3+SIN(D5))/(1+(D5^2)), 2*(D5^2)*COS(D5)^2)</f>
+        <v>0.41814051463486362</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-2</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:H10" si="1">IF(  G5&lt;0,    (ABS(G5))^1/3,    IF(G5&gt;=1,   (ABS(3-G5))/(1+G5),    -2*G5+(G5)/(1+G5))     )</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>-1</v>
       </c>
-      <c r="B4" s="1">
-        <f>SQRT(1 + EXP(3 * A4))</f>
-        <v>1.0245911713302354</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1">
-        <f>SQRT(1 + EXP(3 * A5))</f>
-        <v>1.4142135623730951</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="B6" s="1">
+        <f>(1 + EXP(3 * A6))^(1/4)</f>
+        <v>1.0122209103403443</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0792645075960516</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <f>(1 + EXP(3 * A7))^(1/4)</f>
+        <v>1.189207115002721</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="1">
-        <f>SQRT(1 + EXP(3 * A6))</f>
-        <v>4.5918990541155917</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="B8" s="1">
+        <f>(1 + EXP(3 * A8))^(1/4)</f>
+        <v>2.1428716840062059</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.58385316345285776</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
-        <f>SQRT(1 + EXP(3 * A7))</f>
-        <v>20.110415050235414</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="B9" s="1">
+        <f>(1 + EXP(3 * A9))^(1/4)</f>
+        <v>4.4844637416569011</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3854255165455525</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="1">
-        <f>SQRT(1 + EXP(3 * A8))</f>
-        <v>90.022685627431628</v>
+      <c r="B10" s="1">
+        <f>(1 + EXP(3 * A10))^(1/4)</f>
+        <v>9.4880285427180091</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>17.641532579853294</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>-3</v>
-      </c>
-      <c r="B2" s="1">
-        <f>IF(A2&lt;=0, (3+SIN(A2))/(1+A2^2), 2*A2^2*COS(A2)^2)</f>
-        <v>0.28588799919401325</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>-2</v>
-      </c>
-      <c r="B3" s="1">
-        <f>IF(A3&lt;=0, (3+SIN(A3))/(1+A3^2), 2*A3^2*COS(A3)^2)</f>
-        <v>0.41814051463486362</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B4" s="1">
-        <f>IF(A4&lt;=0, (3+SIN(A4))/(1+A4^2), 2*A4^2*COS(A4)^2)</f>
-        <v>1.0792645075960516</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1">
-        <f>IF(A5&lt;=0, (3+SIN(A5))/(1+A5^2), 2*A5^2*COS(A5)^2)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <f>IF(A6&lt;=0, (3+SIN(A6))/(1+A6^2), 2*A6^2*COS(A6)^2)</f>
-        <v>0.58385316345285776</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1">
-        <f>IF(A7&lt;=0, (3+SIN(A7))/(1+A7^2), 2*A7^2*COS(A7)^2)</f>
-        <v>1.3854255165455525</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1">
-        <f>IF(A8&lt;=0, (3+SIN(A8))/(1+A8^2), 2*A8^2*COS(A8)^2)</f>
-        <v>17.641532579853294</v>
-      </c>
-    </row>
-  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20000" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Задания по Экселю/Диаграммы/Задание_1.xlsx
+++ b/Задания по Экселю/Диаграммы/Задание_1.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="17670" windowHeight="11070"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="17670" windowHeight="11070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Вар. 5" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>x</t>
   </si>
@@ -400,8 +401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -451,7 +452,7 @@
         <v>-3</v>
       </c>
       <c r="B4" s="1">
-        <f>(1 + EXP(3 * A4))^(1/4)</f>
+        <f t="shared" ref="B4:B10" si="0">(1 + EXP(3 * A4))^(1/4)</f>
         <v>1.0000308510233138</v>
       </c>
       <c r="D4" s="1">
@@ -474,21 +475,21 @@
         <v>-2</v>
       </c>
       <c r="B5" s="1">
-        <f>(1 + EXP(3 * A5))^(1/4)</f>
+        <f t="shared" si="0"/>
         <v>1.0006191128557311</v>
       </c>
       <c r="D5" s="1">
         <v>-2</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E10" si="0">IF(D5&lt;=0, (3+SIN(D5))/(1+(D5^2)), 2*(D5^2)*COS(D5)^2)</f>
+        <f t="shared" ref="E5:E10" si="1">IF(D5&lt;=0, (3+SIN(D5))/(1+(D5^2)), 2*(D5^2)*COS(D5)^2)</f>
         <v>0.41814051463486362</v>
       </c>
       <c r="G5" s="1">
         <v>-2</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" ref="H5:H10" si="1">IF(  G5&lt;0,    (ABS(G5))^1/3,    IF(G5&gt;=1,   (ABS(3-G5))/(1+G5),    -2*G5+(G5)/(1+G5))     )</f>
+        <f t="shared" ref="H5:H10" si="2">IF(  G5&lt;0,    (ABS(G5))^1/3,    IF(G5&gt;=1,   (ABS(3-G5))/(1+G5),    -2*G5+(G5)/(1+G5))     )</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -497,21 +498,21 @@
         <v>-1</v>
       </c>
       <c r="B6" s="1">
-        <f>(1 + EXP(3 * A6))^(1/4)</f>
+        <f t="shared" si="0"/>
         <v>1.0122209103403443</v>
       </c>
       <c r="D6" s="1">
         <v>-1</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0792645075960516</v>
       </c>
       <c r="G6" s="1">
         <v>-1</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -520,21 +521,21 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <f>(1 + EXP(3 * A7))^(1/4)</f>
+        <f t="shared" si="0"/>
         <v>1.189207115002721</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -543,21 +544,21 @@
         <v>1</v>
       </c>
       <c r="B8" s="1">
-        <f>(1 + EXP(3 * A8))^(1/4)</f>
+        <f t="shared" si="0"/>
         <v>2.1428716840062059</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.58385316345285776</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -566,21 +567,21 @@
         <v>2</v>
       </c>
       <c r="B9" s="1">
-        <f>(1 + EXP(3 * A9))^(1/4)</f>
+        <f t="shared" si="0"/>
         <v>4.4844637416569011</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3854255165455525</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -589,21 +590,21 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <f>(1 + EXP(3 * A10))^(1/4)</f>
+        <f t="shared" si="0"/>
         <v>9.4880285427180091</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.641532579853294</v>
       </c>
       <c r="G10" s="1">
         <v>3</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -616,4 +617,222 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20000" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>-3</v>
+      </c>
+      <c r="B4" s="1">
+        <f>((1 + A4 * EXP(- A4)))/2+ SQRT((A4^2)+SIN(A4)^2)</f>
+        <v>-26.624988076091856</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-3</v>
+      </c>
+      <c r="E4" s="1">
+        <f>IF(D4&lt;=0,  SQRT(1+ABS(D4)),  (1+3*D4)/2+(1+D4)^1/3  )</f>
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-3</v>
+      </c>
+      <c r="H4" s="1">
+        <f>IF(  G4&lt;0,    (ABS(G4))^1/3,    IF(G4&gt;=1,   (ABS(3-G4))/(1+G4),    -2*G4+(G4)/(1+G4))     )</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>-2</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" ref="B5:B10" si="0">((1 + A5 * EXP(- A5)))/2+ SQRT((A5^2)+SIN(A5)^2)</f>
+        <v>-4.6920531834952142</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ref="E5:E10" si="1">IF(D5&lt;=0,  SQRT(1+ABS(D5)),  (1+3*D5)/2+(1+D5)^1/3  )</f>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-2</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:H10" si="2">IF(  G5&lt;0,    (ABS(G5))^1/3,    IF(G5&gt;=1,   (ABS(3-G5))/(1+G5),    -2*G5+(G5)/(1+G5))     )</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.44779191429441156</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9908725491096553</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="1"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8323381986720491</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5779979112414417</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="1"/>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Задания по Экселю/Диаграммы/Задание_1.xlsx
+++ b/Задания по Экселю/Диаграммы/Задание_1.xlsx
@@ -4,18 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="17670" windowHeight="11070" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="17670" windowHeight="11070" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Вар. 5" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
+    <sheet name="Вар. 1" sheetId="2" r:id="rId1"/>
+    <sheet name="Вар. 2" sheetId="3" r:id="rId2"/>
+    <sheet name="Вар. 3" sheetId="4" r:id="rId3"/>
+    <sheet name="Вар. 4" sheetId="5" r:id="rId4"/>
+    <sheet name="Вар. 5" sheetId="1" r:id="rId5"/>
+    <sheet name="Вар. 6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
   <si>
     <t>x</t>
   </si>
@@ -33,13 +37,775 @@
   </si>
   <si>
     <t>Функция g</t>
+  </si>
+  <si>
+    <r>
+      <t>y=sin(x)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-2x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>если x&gt;0, то g=( 2x+sin</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(x) ) / ( 2+x )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>если x&lt;0, то g=(1+x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)/(Корень из: 1+x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>y=(1+x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)/(1+2x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Если x&lt;=0, то: g=2sinx-cos</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Если x&gt;0, то g=3*√1+x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>y=2+sin</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(x) / 1+x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Если x&lt;=0, то: g=3x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> / 1+x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Если x&gt;0, то g=√(1+ (2x)/(1+x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Если X&lt;=-1, то: z= (1+|x|)/(1+x+x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1/3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Если x∈(-1,0), то: z= 2*LN*(1+x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)+ (1+cos</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(x) ) / (2+x)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Если X&gt;=0; то: z= (1+x)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3/5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Если x&lt;0, то z=3x+√1+x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Если x∈[0.1], то z=2cos(x)e^-2x</t>
+  </si>
+  <si>
+    <t>Если x&gt;1, то 2sin(3x)</t>
+  </si>
+  <si>
+    <r>
+      <t>y=1+cos(x) / 1+e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2x</t>
+    </r>
+  </si>
+  <si>
+    <t>Если x&gt;0, то: g=2√(1+2x)</t>
+  </si>
+  <si>
+    <r>
+      <t>Если x&lt;=0, то: g=( 3+sin</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(2x) ) / (1+cos</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(x) )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if(x∈[0,1]), то: z=2cos(x)e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-2x</t>
+    </r>
+  </si>
+  <si>
+    <t>if(x&gt;1), то: 2sin(3x)</t>
+  </si>
+  <si>
+    <r>
+      <t>if(x&lt;0), то: z=3x+√(1+x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>y=(1+e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1/4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if (x&lt;=0): g=(3+sin(x))/(1+x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if(x&gt;0): g=2x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>cos</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(x)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if(x&lt;0): z=|x|</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1/3</t>
+    </r>
+  </si>
+  <si>
+    <t>if(x∈[0,1):z=-2x+x/(1+x)</t>
+  </si>
+  <si>
+    <t>if(x&gt;=1): z=( |3-x| )/(1+x)</t>
+  </si>
+  <si>
+    <r>
+      <t>y=(1+xe</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>)/(2+√(x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>+sin</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(x)))</t>
+    </r>
+  </si>
+  <si>
+    <t>if(x&lt;=0): √(1+|x|)</t>
+  </si>
+  <si>
+    <r>
+      <t>if(x&gt;0): (1+3x)/ (2+(1+x)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1/3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>if(x&lt;0): |x|</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1/3</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">if(x∈[0,1)): -2x+x/(1+x) </t>
+  </si>
+  <si>
+    <t>if(x&gt;=1): (|3-x|)/(1+x)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color theme="1"/>
@@ -49,6 +815,14 @@
     </font>
     <font>
       <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -91,12 +865,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -399,15 +1176,1040 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H10"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>-3</v>
+      </c>
+      <c r="B7" s="1">
+        <f>SIN(A7)*EXP(1)^(-2*A7)</f>
+        <v>-56.931874589277271</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-3</v>
+      </c>
+      <c r="E7" s="1">
+        <f>IF(D7&gt;0, 2*D7+(SIN(D7)^2)/2+D7, (1+D7^2)/SQRT(1+D7^4)   )</f>
+        <v>1.1043152607484654</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-3</v>
+      </c>
+      <c r="H7" s="1">
+        <f>IF(G7&lt;=1, (1+ABS(G7))/(1+G7+G7^2), IF(G7&gt;=0, (1+G7)^(3/5), 2*LN(1+G7^2)+(1+COS(G7)^4 )/(2+G7) )  )</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>-2</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" ref="B8:B13" si="0">SIN(A8)*EXP(1)^(-2*A8)</f>
+        <v>-49.645957334580558</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" ref="E8:E13" si="1">IF(D8&gt;0, 2*D8+(SIN(D8)^2)/2+D8, (1+D8^2)/SQRT(1+D8^4)   )</f>
+        <v>1.212678125181665</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-2</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" ref="H8:H13" si="2">IF(G8&lt;=1, (1+ABS(G8))/(1+G8+G8^2), IF(G8&gt;=0, (1+G8)^(3/5), 2*LN(1+G8^2)+(1+COS(G8)^4 )/(2+G8) )  )</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.2176763123679679</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1138807140643681</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3540367091367855</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.665436331219438E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="1"/>
+        <v>6.413410905215903</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9331820449317627</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4980152714957004E-4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>9.0099574283374082</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2973967099940702</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="20000" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>-3</v>
+      </c>
+      <c r="B7" s="1">
+        <f>(1+A7^2)/(1+2*A7^2)</f>
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-3</v>
+      </c>
+      <c r="E7" s="1">
+        <f>IF(D7&lt;=0, 2*SIN(D7)-COS(D7)^2, 3*(SQRT(1+D7^2)))</f>
+        <v>-1.2623251594449174</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-3</v>
+      </c>
+      <c r="H7" s="1">
+        <f>IF(G7&lt;=1, (1+ABS(G7))/(1+G7+G7^2), IF(G7&gt;=0, (1+G7)^(3/5), 2*LN(1+G7^2)+(1+COS(G7)^4 )/(2+G7) )  )</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>-2</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" ref="B8:B13" si="0">(1+A8^2)/(1+2*A8^2)</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" ref="E8:E13" si="1">IF(D8&lt;=0, 2*SIN(D8)-COS(D8)^2, 3*(SQRT(1+D8^2)))</f>
+        <v>-1.9917730432195575</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-2</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" ref="H8:H13" si="2">IF(G8&lt;=1, (1+ABS(G8))/(1+G8+G8^2), IF(G8&gt;=0, (1+G8)^(3/5), 2*LN(1+G8^2)+(1+COS(G8)^4 )/(2+G8) )  )</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.9748685513422219</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="1"/>
+        <v>4.2426406871192857</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="1"/>
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9331820449317627</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>9.4868329805051381</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="2"/>
+        <v>2.2973967099940702</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>-3</v>
+      </c>
+      <c r="B7" s="1">
+        <f>2+SIN(A7)/(1+A7^2)</f>
+        <v>1.9858879991940133</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-3</v>
+      </c>
+      <c r="E7" s="1">
+        <f>IF(D7&lt;=0, (3*D7^2) / 1+D7^2, SQRT(1+(2*D7)/(1+D7^2) ) )</f>
+        <v>36</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-3</v>
+      </c>
+      <c r="H7" s="1">
+        <f>IF(G7&lt;0,(3*G7+(SQRT(1+G7^2))),IF(G7=0,  2*COS(G7)*EXP(1)^(-2*G7),  2*SIN(3*G7) ))</f>
+        <v>-5.83772233983162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>-2</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" ref="B8:B13" si="0">2+SIN(A8)/(1+A8^2)</f>
+        <v>1.8181405146348637</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" ref="E8:E13" si="1">IF(D8&lt;=0, (3*D8^2) / 1+D8^2, SQRT(1+(2*D8)/(1+D8^2) ) )</f>
+        <v>16</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-2</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" ref="H8:H9" si="2">IF(G8&lt;0,(3*G8+(SQRT(1+G8^2))),IF(G8=0,  2*COS(G8)*EXP(1)^(-2*G8),  2*SIN(3*G8) ))</f>
+        <v>-3.7639320225002102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5792645075960516</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.5857864376269049</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>IF(G10&lt;0,(3*G10+(SQRT(1+G10^2))),IF(G10=0,  2*COS(G10)*EXP(1)^(-2*G10),  2*SIN(3*G10) ))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4207354924039484</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" ref="H11:H13" si="3">IF(G11&lt;0,(3*G11+(SQRT(1+G11^2))),IF(G11=0,  2*COS(G11)*EXP(1)^(-2*G11),  2*SIN(3*G11) ))</f>
+        <v>0.28224001611973443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1818594853651363</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3416407864998738</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.55883099639785172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0141120008059867</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2649110640673518</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="3"/>
+        <v>0.82423697048351319</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="G3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>-3</v>
+      </c>
+      <c r="B7" s="1">
+        <f>(1+COS(A7) )/(1+EXP(1)^(2*A7) )</f>
+        <v>9.982758614908745E-3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-3</v>
+      </c>
+      <c r="E7" s="1">
+        <f>IF(D7&lt;=0, (3+SIN(2*D7)^2)/(1+COS(D7)^2), (2*SQRT(1+2*D7))    )</f>
+        <v>1.5545154868768449</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-3</v>
+      </c>
+      <c r="H7" s="1">
+        <f>IF(G7&lt;0, 3*G7+SQRT(1+G7^2), IF(G7=0, 2*COS(G7)*EXP(1)^(-2*G7), 2*SIN(3*G7)  )  )</f>
+        <v>-5.83772233983162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>-2</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" ref="B8:B13" si="0">(1+COS(A8) )/(1+EXP(1)^(2*A8) )</f>
+        <v>0.57335185786796317</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" ref="E8:E13" si="1">IF(D8&lt;=0, (3+SIN(2*D8)^2)/(1+COS(D8)^2), (2*SQRT(1+2*D8))    )</f>
+        <v>3.0453600728967789</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-2</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" ref="H8:H13" si="2">IF(G8&lt;0, 3*G8+SQRT(1+G8^2), IF(G8=0, 2*COS(G8)*EXP(1)^(-2*G8), 2*SIN(3*G8)  )  )</f>
+        <v>-3.7639320225002102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3566937702112518</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="1"/>
+        <v>2.9621047082396452</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.5857864376269049</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.18360853565688776</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4641016151377544</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.28224001611973443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0501305584894462E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="1"/>
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.55883099639785172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4744784645839902E-5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>5.2915026221291814</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.82423697048351319</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="16.83203125" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
@@ -419,217 +2221,256 @@
       </c>
       <c r="B1" s="3"/>
       <c r="D1" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" s="3"/>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>-3</v>
       </c>
-      <c r="B4" s="1">
-        <f t="shared" ref="B4:B10" si="0">(1 + EXP(3 * A4))^(1/4)</f>
+      <c r="B8" s="1">
+        <f>(1 + EXP(1)^(3*A8))^(1/4)</f>
         <v>1.0000308510233138</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D8" s="1">
         <v>-3</v>
       </c>
-      <c r="E4" s="1">
-        <f>IF(D4&lt;=0, (3+SIN(D4))/(1+(D4^2)), 2*(D4^2)*COS(D4)^2)</f>
+      <c r="E8" s="1">
+        <f>IF(D8&lt;=0, (3+SIN(D8))/(1+(D8^2)), 2*(D8^2)*COS(D8)^2)</f>
         <v>0.28588799919401325</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G8" s="1">
         <v>-3</v>
       </c>
-      <c r="H4" s="1">
-        <f>IF(  G4&lt;0,    (ABS(G4))^1/3,    IF(G4&gt;=1,   (ABS(3-G4))/(1+G4),    -2*G4+(G4)/(1+G4))     )</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="H8" s="1">
+        <f>IF(  G8&lt;0,    (ABS(G8))^1/3,    IF(G8&gt;=1,   (ABS(3-G8))/(1+G8),    -2*G8+(G8)/(1+G8))     )</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>-2</v>
       </c>
-      <c r="B5" s="1">
-        <f t="shared" si="0"/>
+      <c r="B9" s="1">
+        <f t="shared" ref="B9:B14" si="0">(1 + EXP(1)^(3*A9))^(1/4)</f>
         <v>1.0006191128557311</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D9" s="1">
         <v>-2</v>
       </c>
-      <c r="E5" s="1">
-        <f t="shared" ref="E5:E10" si="1">IF(D5&lt;=0, (3+SIN(D5))/(1+(D5^2)), 2*(D5^2)*COS(D5)^2)</f>
+      <c r="E9" s="1">
+        <f t="shared" ref="E9:E14" si="1">IF(D9&lt;=0, (3+SIN(D9))/(1+(D9^2)), 2*(D9^2)*COS(D9)^2)</f>
         <v>0.41814051463486362</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G9" s="1">
         <v>-2</v>
       </c>
-      <c r="H5" s="1">
-        <f t="shared" ref="H5:H10" si="2">IF(  G5&lt;0,    (ABS(G5))^1/3,    IF(G5&gt;=1,   (ABS(3-G5))/(1+G5),    -2*G5+(G5)/(1+G5))     )</f>
+      <c r="H9" s="1">
+        <f t="shared" ref="H9:H14" si="2">IF(  G9&lt;0,    (ABS(G9))^1/3,    IF(G9&gt;=1,   (ABS(3-G9))/(1+G9),    -2*G9+(G9)/(1+G9))     )</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>-1</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>1.0122209103403443</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D10" s="1">
         <v>-1</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E10" s="1">
         <f t="shared" si="1"/>
         <v>1.0792645075960516</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G10" s="1">
         <v>-1</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H10" s="1">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>1.189207115002721</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>2.1428716840062059</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
         <f t="shared" si="1"/>
         <v>0.58385316345285776</v>
       </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>4.4844637416569011</v>
       </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="1"/>
         <v>1.3854255165455525</v>
       </c>
-      <c r="G9" s="1">
-        <v>2</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>9.4880285427180091</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D14" s="1">
         <v>3</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E14" s="1">
         <f t="shared" si="1"/>
         <v>17.641532579853294</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G14" s="1">
         <v>3</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H14" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="20000" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -638,200 +2479,236 @@
       </c>
       <c r="B1" s="3"/>
       <c r="D1" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" s="3"/>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>-3</v>
       </c>
-      <c r="B4" s="1">
-        <f>((1 + A4 * EXP(- A4)))/2+ SQRT((A4^2)+SIN(A4)^2)</f>
-        <v>-26.624988076091856</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="B8" s="1">
+        <f xml:space="preserve"> ( 1+A8+EXP(1)^(-A8) )/(2+SQRT(A8^2 + SIN(A8)^2))</f>
+        <v>3.6147091634138659</v>
+      </c>
+      <c r="D8" s="1">
         <v>-3</v>
       </c>
-      <c r="E4" s="1">
-        <f>IF(D4&lt;=0,  SQRT(1+ABS(D4)),  (1+3*D4)/2+(1+D4)^1/3  )</f>
-        <v>2</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="E8" s="1">
+        <f>IF(D8&lt;=0,   SQRT(1+ABS(D8)),   (1+3*D8)/(2+(1+D8)^1/3))</f>
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
         <v>-3</v>
       </c>
-      <c r="H4" s="1">
-        <f>IF(  G4&lt;0,    (ABS(G4))^1/3,    IF(G4&gt;=1,   (ABS(3-G4))/(1+G4),    -2*G4+(G4)/(1+G4))     )</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="H8" s="1">
+        <f>IF(G8&lt;0, (ABS(G8)^(1/3)), (IF(G8&gt;=1, ABS(3-G8)/(1+G8), -2*G8+G8/(1+G8) )) )</f>
+        <v>1.4422495703074083</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>-2</v>
       </c>
-      <c r="B5" s="1">
-        <f t="shared" ref="B5:B10" si="0">((1 + A5 * EXP(- A5)))/2+ SQRT((A5^2)+SIN(A5)^2)</f>
-        <v>-4.6920531834952142</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="B9" s="1">
+        <f t="shared" ref="B9:B14" si="0" xml:space="preserve"> ( 1+A9+EXP(1)^(-A9) )/(2+SQRT(A9^2 + SIN(A9)^2))</f>
+        <v>1.5222901264693998</v>
+      </c>
+      <c r="D9" s="1">
         <v>-2</v>
       </c>
-      <c r="E5" s="1">
-        <f t="shared" ref="E5:E10" si="1">IF(D5&lt;=0,  SQRT(1+ABS(D5)),  (1+3*D5)/2+(1+D5)^1/3  )</f>
+      <c r="E9" s="1">
+        <f t="shared" ref="E9:E14" si="1">IF(D9&lt;=0,   SQRT(1+ABS(D9)),   (1+3*D9)/(2+(1+D9)^1/3))</f>
         <v>1.7320508075688772</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G9" s="1">
         <v>-2</v>
       </c>
-      <c r="H5" s="1">
-        <f t="shared" ref="H5:H10" si="2">IF(  G5&lt;0,    (ABS(G5))^1/3,    IF(G5&gt;=1,   (ABS(3-G5))/(1+G5),    -2*G5+(G5)/(1+G5))     )</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="H9" s="1">
+        <f t="shared" ref="H9:H14" si="2">IF(G9&lt;0, (ABS(G9)^(1/3)), (IF(G9&gt;=1, ABS(3-G9)/(1+G9), -2*G9+G9/(1+G9) )) )</f>
+        <v>1.2599210498948732</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>-1</v>
       </c>
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.44779191429441156</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.8219948724124414</v>
+      </c>
+      <c r="D10" s="1">
         <v>-1</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E10" s="1">
         <f t="shared" si="1"/>
         <v>1.4142135623730951</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G10" s="1">
         <v>-1</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H10" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.71603493749474101</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.7470414832702883</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.80942039421211354</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3</v>
+      </c>
+      <c r="H14" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>1.9908725491096553</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8323381986720491</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>3.5779979112414417</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="1"/>
-        <v>6.333333333333333</v>
-      </c>
-      <c r="G10" s="1">
-        <v>3</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
